--- a/Nomina_consumo_camion.xlsx
+++ b/Nomina_consumo_camion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Periodo 26-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC55AE0-062B-4C14-97D5-DD8FDD0B3682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA936B3-55F5-4C3B-A3F6-EBE61EF30793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14A7D35F-6FEB-456B-B63D-83DB7F82056E}"/>
   </bookViews>
@@ -447,7 +447,7 @@
     <t>AF427QV</t>
   </si>
   <si>
-    <t>AF104WW</t>
+    <t>AF140WW</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EA6C39-B6A0-4B83-9200-FACD14613F28}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
